--- a/旅館系統/旅館管理系統資料規格範例.xlsx
+++ b/旅館系統/旅館管理系統資料規格範例.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20B493EA-EDC3-486F-8383-B66997F98B94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D899373-69E7-4F38-98EA-0292DCA53704}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{C044DA50-0112-404E-A9D3-A86B7E7712CE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" activeTab="1" xr2:uid="{C044DA50-0112-404E-A9D3-A86B7E7712CE}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="旅管系統ER圖" sheetId="2" r:id="rId1"/>
+    <sheet name="旅管系統資料字典" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="145">
   <si>
     <t xml:space="preserve"> Entity：會員  Table Name : Member</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -353,22 +354,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>是否確認</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsConfirm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>default 0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> Entity：包含  Table Name : OrderDetail</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -405,11 +390,215 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>是否入住</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsCheckIn</t>
+    <t>處理狀態代碼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>處理狀態</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProcessingStatus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Entity：房務處理狀態  Table Name :ProcessingStatus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Entity：房務  Table Name : RoomService</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomServiceID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subject</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ServiceContent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提出時間</t>
+  </si>
+  <si>
+    <t>CreatedTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求內容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主旨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>處理描述</t>
+  </si>
+  <si>
+    <t>完成時間</t>
+  </si>
+  <si>
+    <t>CompletionTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProcessingDiscription</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>房務編號</t>
+  </si>
+  <si>
+    <t>需求房號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F.K</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Entity：員工  Table Name : Employee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">EmployeeID </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>員工編號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>到職日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HireDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>U.Q</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>年資</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>--</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seniority</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色代碼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名稱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款方式代碼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Entity：員工角色  Table Name : EmployeeRole</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoleCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PayCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PayType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoleName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref. EmployeeRole.RoleCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref. PayType.PayCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref. Employee.EmployeeID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref. ProcessingStatus.PSCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Entity：付款方式  Table Name : PayType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>從到職日計算到現在</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> SHA256 hash</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅館管理系統資料庫 HotelSysDB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Entity：房間照片  Table Name : RoomPhoto</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>照片路徑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhotoPath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Entity：訂單狀態  Table Name : OrderStatus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>訂單狀態編號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref. OrderStatus.StatusCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一個房間1~5張</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sensitive</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -417,7 +606,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -458,8 +647,23 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -475,6 +679,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,15 +744,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -551,6 +761,51 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -568,6 +823,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>392778</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="圖片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FE3C160-C140-4602-9C51-0932283C0FB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="17537778" cy="8886824"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -866,14 +1176,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DEA3CBF-AB68-4CCD-A92A-FF42B1F61844}">
-  <dimension ref="B3:H64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BAB599A-7176-422A-8145-B3D8B152E947}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DEA3CBF-AB68-4CCD-A92A-FF42B1F61844}">
+  <dimension ref="B2:J128"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="16.125" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
@@ -884,991 +1213,1974 @@
     <col min="8" max="8" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+    <row r="2" spans="2:8" ht="25.5">
+      <c r="B2" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="4" spans="2:8" ht="21">
+      <c r="B4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="18"/>
+    </row>
+    <row r="5" spans="2:8" ht="21">
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+    <row r="6" spans="2:8" ht="21">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E6" s="3">
         <v>5</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="F6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+    <row r="7" spans="2:8" ht="21">
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E7" s="3">
         <v>40</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
+      <c r="F7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="2:8" ht="21">
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E8" s="5">
         <v>10</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
+      <c r="F8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="2:8" ht="21">
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E9" s="5">
         <v>50</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
+      <c r="F9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="2:8" ht="21">
+      <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="12" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+      <c r="E10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="13" spans="2:8" ht="21">
+      <c r="B13" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" spans="2:8" ht="21">
+      <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H14" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
+    <row r="15" spans="2:8" ht="21">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="5" t="s">
+      <c r="E15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H15" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
+    <row r="16" spans="2:8" ht="21">
+      <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E16" s="3">
         <v>20</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
+      <c r="F16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="2:8" ht="21">
+      <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E17" s="3">
         <v>5</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="6" t="s">
+      <c r="F17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H17" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+    <row r="20" spans="2:8" ht="21">
+      <c r="B20" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="18"/>
+    </row>
+    <row r="21" spans="2:8" ht="21">
+      <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H21" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
+    <row r="22" spans="2:8" ht="21">
+      <c r="B22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E22" s="3">
         <v>30</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="5" t="s">
+      <c r="F22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
+      <c r="H22" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="21">
+      <c r="B23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C23" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E23" s="3">
+        <v>200</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="21">
+      <c r="B24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="3">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="21">
+      <c r="B27" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="18"/>
+    </row>
+    <row r="28" spans="2:8" ht="21">
+      <c r="B28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="21">
+      <c r="B29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="3">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="21">
+      <c r="B30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="3">
+        <v>40</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="2:8" ht="21">
+      <c r="B31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="2:8" ht="21">
+      <c r="B32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="21">
+      <c r="B33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="21">
+      <c r="B34" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="21">
+      <c r="B35" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="3">
+        <v>400</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="2:8" ht="21">
+      <c r="B36" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G36" s="4"/>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="2:8" ht="21">
+      <c r="B37" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="21">
+      <c r="B38" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="21">
+      <c r="B39" s="13"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+    </row>
+    <row r="40" spans="2:8" ht="21">
+      <c r="B40" s="13"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+    </row>
+    <row r="41" spans="2:8" ht="21">
+      <c r="B41" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="18"/>
+    </row>
+    <row r="42" spans="2:8" ht="21">
+      <c r="B42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="21">
+      <c r="B43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="21">
+      <c r="B44" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="3">
+        <v>50</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="4"/>
+      <c r="H44" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="21">
+      <c r="B45" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="3">
+        <v>5</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="21">
+      <c r="B46" s="13"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+    </row>
+    <row r="48" spans="2:8" ht="21">
+      <c r="B48" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="18"/>
+    </row>
+    <row r="49" spans="2:8" ht="21">
+      <c r="B49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="21">
+      <c r="B50" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="3">
+        <v>1</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="2:8" ht="21">
+      <c r="B51" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" s="3">
+        <v>10</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+    </row>
+    <row r="54" spans="2:8" ht="21">
+      <c r="B54" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="18"/>
+    </row>
+    <row r="55" spans="2:8" ht="21">
+      <c r="B55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="21">
+      <c r="B56" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="3">
+        <v>12</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="2:8" ht="21">
+      <c r="B57" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="4"/>
+      <c r="H57" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" ht="21">
+      <c r="B58" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="2:8" ht="21">
+      <c r="B59" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="2:8" ht="21">
+      <c r="B60" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" s="3">
+        <v>200</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61" spans="2:8" ht="21">
+      <c r="B61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="3">
+        <v>5</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" ht="21">
+      <c r="B62" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="20">
+        <v>4</v>
+      </c>
+      <c r="F62" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G62" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H62" s="20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" ht="21">
+      <c r="B63" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="3">
+        <v>2</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" ht="21">
+      <c r="B64" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="3">
+        <v>1</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" ht="21">
+      <c r="B65" s="13"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+    </row>
+    <row r="67" spans="2:8" ht="21">
+      <c r="B67" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="18"/>
+    </row>
+    <row r="68" spans="2:8" ht="21">
+      <c r="B68" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" ht="21">
+      <c r="B69" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="3">
+        <v>1</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69" s="3"/>
+    </row>
+    <row r="70" spans="2:8" ht="21">
+      <c r="B70" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70" s="3">
+        <v>10</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+    </row>
+    <row r="71" spans="2:8" ht="21">
+      <c r="B71" s="13"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+    </row>
+    <row r="73" spans="2:8" ht="21">
+      <c r="B73" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="18"/>
+    </row>
+    <row r="74" spans="2:8" ht="21">
+      <c r="B74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" ht="21">
+      <c r="B75" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="3">
+        <v>12</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" ht="21">
+      <c r="B76" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="3">
+        <v>5</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" ht="21">
+      <c r="B77" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" s="4"/>
+      <c r="H77" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" ht="21">
+      <c r="B78" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G78" s="4"/>
+      <c r="H78" s="3"/>
+    </row>
+    <row r="79" spans="2:8" ht="21">
+      <c r="B79" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+    </row>
+    <row r="82" spans="2:8" ht="21">
+      <c r="B82" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="18"/>
+    </row>
+    <row r="83" spans="2:8" ht="21">
+      <c r="B83" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" ht="21">
+      <c r="B84" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" s="3">
+        <v>1</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H84" s="3"/>
+    </row>
+    <row r="85" spans="2:8" ht="21">
+      <c r="B85" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E85" s="3">
         <v>20</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
+      <c r="F85" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+    </row>
+    <row r="88" spans="2:8" ht="21">
+      <c r="B88" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="18"/>
+    </row>
+    <row r="89" spans="2:8" ht="21">
+      <c r="B89" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" ht="21">
+      <c r="B90" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" s="3">
         <v>8</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="F90" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H90" s="3"/>
+    </row>
+    <row r="91" spans="2:8" ht="21">
+      <c r="B91" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" s="3">
+        <v>5</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+    </row>
+    <row r="92" spans="2:8" ht="21">
+      <c r="B92" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E92" s="3">
+        <v>50</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+    </row>
+    <row r="93" spans="2:8" ht="21">
+      <c r="B93" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E93" s="5">
+        <v>500</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G93" s="4"/>
+      <c r="H93" s="3"/>
+    </row>
+    <row r="94" spans="2:8" ht="21">
+      <c r="B94" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G94" s="4"/>
+      <c r="H94" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" ht="21">
+      <c r="B95" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E95" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+    </row>
+    <row r="96" spans="2:8" ht="21">
+      <c r="B96" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+    </row>
+    <row r="97" spans="2:8" ht="21">
+      <c r="B97" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D97" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E97" s="3">
         <v>5</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="5" t="s">
+      <c r="F97" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H97" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
+    <row r="98" spans="2:8" ht="21">
+      <c r="B98" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" s="3">
+        <v>4</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" ht="21">
+      <c r="B99" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" s="3">
         <v>1</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="F99" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" ht="21">
+      <c r="B102" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C102" s="17"/>
+      <c r="D102" s="17"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="17"/>
+      <c r="G102" s="17"/>
+      <c r="H102" s="18"/>
+    </row>
+    <row r="103" spans="2:8" ht="21">
+      <c r="B103" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D103" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E103" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F103" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G103" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H103" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
+    <row r="104" spans="2:8" ht="21">
+      <c r="B104" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104" s="3">
+        <v>4</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H104" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" ht="21">
+      <c r="B105" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E105" s="3">
         <v>40</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="5" t="s">
+      <c r="F105" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+    </row>
+    <row r="106" spans="2:8" ht="21">
+      <c r="B106" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G106" s="4"/>
+      <c r="H106" s="3"/>
+    </row>
+    <row r="107" spans="2:8" ht="21">
+      <c r="B107" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E107" s="5">
+        <v>50</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G107" s="4"/>
+      <c r="H107" s="3"/>
+    </row>
+    <row r="108" spans="2:8" ht="21">
+      <c r="B108" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G108" s="4"/>
+      <c r="H108" s="3"/>
+    </row>
+    <row r="109" spans="2:8" ht="21">
+      <c r="B109" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E109" s="3">
+        <v>20</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+    </row>
+    <row r="110" spans="2:8" ht="21">
+      <c r="B110" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E110" s="3">
+        <v>30</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" ht="21">
+      <c r="B111" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E111" s="3">
+        <v>200</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G111" s="4"/>
+      <c r="H111" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" ht="21">
+      <c r="B112" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G112" s="9"/>
+      <c r="H112" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="113" spans="2:10" ht="21">
+      <c r="B113" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D113" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E113" s="3">
+        <v>1</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G113" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10" ht="21">
+      <c r="B116" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C116" s="17"/>
+      <c r="D116" s="17"/>
+      <c r="E116" s="17"/>
+      <c r="F116" s="17"/>
+      <c r="G116" s="17"/>
+      <c r="H116" s="18"/>
+    </row>
+    <row r="117" spans="2:10" ht="21">
+      <c r="B117" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F117" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="5" t="s">
+      <c r="G117" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10" ht="21">
+      <c r="B118" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E118" s="3">
+        <v>1</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G118" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B29" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="5" t="s">
+      <c r="H118" s="3"/>
+    </row>
+    <row r="119" spans="2:10" ht="21">
+      <c r="B119" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D119" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="5">
-        <v>40</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B31" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B32" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32" s="5" t="s">
+      <c r="E119" s="3">
+        <v>15</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
+    </row>
+    <row r="122" spans="2:10" ht="21">
+      <c r="B122" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C122" s="17"/>
+      <c r="D122" s="17"/>
+      <c r="E122" s="17"/>
+      <c r="F122" s="17"/>
+      <c r="G122" s="17"/>
+      <c r="H122" s="18"/>
+    </row>
+    <row r="123" spans="2:10" ht="21">
+      <c r="B123" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="2:10" ht="21">
+      <c r="B124" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D124" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="7">
-        <v>1</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="6"/>
-      <c r="H32" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B33" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E33" s="7">
+      <c r="E124" s="3">
         <v>2</v>
       </c>
-      <c r="F33" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="6"/>
-      <c r="H33" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B34" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D34" s="5" t="s">
+      <c r="F124" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H124" s="3"/>
+      <c r="J124" s="11"/>
+    </row>
+    <row r="125" spans="2:10" ht="21">
+      <c r="B125" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D125" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="5">
-        <v>400</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="6"/>
-      <c r="H34" s="5"/>
-    </row>
-    <row r="35" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B35" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G35" s="6"/>
-      <c r="H35" s="5"/>
-    </row>
-    <row r="36" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B36" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="6"/>
-      <c r="H36" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B37" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" s="5" t="s">
+      <c r="E125" s="3">
         <v>10</v>
       </c>
-      <c r="E37" s="5">
-        <v>2</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="2"/>
-    </row>
-    <row r="41" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B41" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B42" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" s="5">
-        <v>2</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H42" s="5"/>
-    </row>
-    <row r="43" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B43" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" s="5">
-        <v>10</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-    </row>
-    <row r="46" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B46" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="2"/>
-    </row>
-    <row r="47" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B47" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B48" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="5">
-        <v>12</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H48" s="5"/>
-    </row>
-    <row r="49" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B49" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" s="6"/>
-      <c r="H49" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B50" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-    </row>
-    <row r="51" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B51" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-    </row>
-    <row r="52" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B52" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" s="6"/>
-      <c r="H52" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B53" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E53" s="5">
-        <v>200</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-    </row>
-    <row r="54" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B54" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="5">
-        <v>5</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H54" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B57" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="2"/>
-    </row>
-    <row r="58" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B58" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B59" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E59" s="5">
-        <v>12</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B60" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" s="5">
-        <v>5</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B61" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" s="6"/>
-      <c r="H61" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B62" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G62" s="6"/>
-      <c r="H62" s="5"/>
-    </row>
-    <row r="63" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B63" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-    </row>
-    <row r="64" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B64" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5" t="s">
-        <v>85</v>
-      </c>
+      <c r="F125" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4"/>
+    </row>
+    <row r="126" spans="2:10">
+      <c r="J126" s="11"/>
+    </row>
+    <row r="128" spans="2:10">
+      <c r="J128" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B46:H46"/>
+  <mergeCells count="15">
+    <mergeCell ref="B82:H82"/>
+    <mergeCell ref="B88:H88"/>
+    <mergeCell ref="B102:H102"/>
+    <mergeCell ref="B116:H116"/>
+    <mergeCell ref="B122:H122"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B67:H67"/>
+    <mergeCell ref="B73:H73"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="B54:H54"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
